--- a/src/data/output/Capgemini_Environment_Data_Deviation_Analysis.xlsx
+++ b/src/data/output/Capgemini_Environment_Data_Deviation_Analysis.xlsx
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-04 14:00:16</t>
+          <t>2026-02-05 12:05:10</t>
         </is>
       </c>
     </row>
